--- a/APserumGLMresults.xlsx
+++ b/APserumGLMresults.xlsx
@@ -2075,26 +2075,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.145554868983846</v>
+        <v>0.0348374005950991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B3" t="n">
-        <v>0.508805335165926</v>
+        <v>0.0590505995640548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B4" t="n">
-        <v>0.945530256502668</v>
+        <v>0.0642102701768537</v>
       </c>
     </row>
     <row r="5">
@@ -2102,463 +2102,463 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0442254412772176</v>
+        <v>0.0738250481384169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="n">
-        <v>0.328060007083722</v>
+        <v>0.0810424622273066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.703139459688554</v>
+        <v>0.0975696193080747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0336511238666482</v>
+        <v>0.11008912532014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>0.785669946031</v>
+        <v>0.112057454976672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>0.215296486625276</v>
+        <v>0.113068550460164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B11" t="n">
-        <v>0.282443886856731</v>
+        <v>0.123828048846789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B12" t="n">
-        <v>0.116010716922014</v>
+        <v>0.132449605816023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191639230870191</v>
+        <v>0.134097956157508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>0.95433435355585</v>
+        <v>0.138567337944047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.991356456853762</v>
+        <v>0.145674525231538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B16" t="n">
-        <v>0.292068271733707</v>
+        <v>0.148381692925889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n">
-        <v>0.570601843053545</v>
+        <v>0.152739699948993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>0.150943634942621</v>
+        <v>0.170960377981608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>0.476799624454377</v>
+        <v>0.176614976156674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="n">
-        <v>0.756741167011669</v>
+        <v>0.178558646357008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>0.486624456819801</v>
+        <v>0.178822608170284</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>0.14116309001958</v>
+        <v>0.184444441209552</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12768426078642</v>
+        <v>0.186699858140662</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
-        <v>0.367246112336698</v>
+        <v>0.211785748112298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>0.127979897395156</v>
+        <v>0.21903152648913</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" t="n">
-        <v>0.390109090962287</v>
+        <v>0.254315251108709</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B27" t="n">
-        <v>0.536851237720599</v>
+        <v>0.25811888020331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>0.57661464558919</v>
+        <v>0.266671028871576</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B29" t="n">
-        <v>0.565406984584088</v>
+        <v>0.320278513654672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0529085328255799</v>
+        <v>0.328369698574943</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203961281285236</v>
+        <v>0.348319968562624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n">
-        <v>0.735661346554692</v>
+        <v>0.418039751802918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B33" t="n">
-        <v>0.126186688014838</v>
+        <v>0.419851787379866</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0451298863918515</v>
+        <v>0.442932245538072</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0793371961115066</v>
+        <v>0.481591273722087</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B36" t="n">
-        <v>0.911323254492204</v>
+        <v>0.481628785999139</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>0.990597587837538</v>
+        <v>0.492371608429038</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B38" t="n">
-        <v>0.527971510095696</v>
+        <v>0.497165137614004</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B39" t="n">
-        <v>0.81721419359548</v>
+        <v>0.503435442969826</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.474017546901187</v>
+        <v>0.508530752882715</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0598482778641105</v>
+        <v>0.509927306312354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284991963651693</v>
+        <v>0.543440222746736</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B43" t="n">
-        <v>0.464423265105516</v>
+        <v>0.544179660935177</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109036758219257</v>
+        <v>0.550382960483929</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.516188142977072</v>
+        <v>0.561865054863951</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B46" t="n">
-        <v>0.283703834797769</v>
+        <v>0.56196138426514</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B47" t="n">
-        <v>0.146056650997516</v>
+        <v>0.574887544504898</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B48" t="n">
-        <v>0.139863947165639</v>
+        <v>0.575061909823494</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>0.453091144064016</v>
+        <v>0.611994618923903</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.38746207209385</v>
+        <v>0.618617203231581</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B51" t="n">
-        <v>0.141236866331768</v>
+        <v>0.634131779269724</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187580132090058</v>
+        <v>0.717185272623749</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B53" t="n">
-        <v>0.604611948566151</v>
+        <v>0.723666128839512</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="n">
-        <v>0.222321715752473</v>
+        <v>0.754749878150318</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.946251855740051</v>
+        <v>0.918032826409062</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B56" t="n">
-        <v>0.201147663904696</v>
+        <v>0.925786730508701</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B57" t="n">
-        <v>0.977006443304548</v>
+        <v>0.931207550370106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>0.11079745509275</v>
+        <v>0.946352345850718</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B59" t="n">
-        <v>0.991548846782511</v>
+        <v>0.952050370821473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B60" t="n">
-        <v>0.509192114320112</v>
+        <v>0.991356456853762</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>0.506688999368364</v>
+        <v>0.991548846782091</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B62" t="n">
-        <v>0.526810570070314</v>
+        <v>0.994050015615026</v>
       </c>
     </row>
   </sheetData>

--- a/APserumGLMresults.xlsx
+++ b/APserumGLMresults.xlsx
@@ -15,9 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">microRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coefficient.estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard.deviation</t>
   </si>
   <si>
     <t xml:space="preserve">p.value</t>
@@ -542,492 +548,864 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
+        <v>-0.591151618944528</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.311574033572664</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.0577874214912619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
+        <v>-0.393911304387174</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.290453079773962</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.175036815034423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
+        <v>-0.108646136399221</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0824533977147507</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.18761508441751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
+        <v>-0.114231523286429</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0885398013108407</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.196991138641747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
+        <v>-0.154625444078752</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.141311136732142</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.273858588611885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
+        <v>-0.152278564975711</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.145983033276066</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.296890360978018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
+        <v>0.427568138294246</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.434051528472428</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.324593083884753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
+        <v>-0.0858486252598694</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0958694618385886</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.370533675967774</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
+        <v>-0.158631032791911</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.178900322287917</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.37524008610747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
+        <v>-0.178190161746416</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.201289430080168</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.376025309774386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
+        <v>0.0617806059962694</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0745374542210106</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.407187491302629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
+        <v>-0.0702849461851212</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0870292082831644</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.419319844095123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
+        <v>-0.036029146465674</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0456456017349283</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.42992295059023</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
+        <v>0.087022115064406</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.121469284209933</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.47373667119671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
+        <v>0.0595546045813926</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0844485980453442</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.480675073680517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
+        <v>0.0646855426139118</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0937184307616462</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.490061166027345</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n">
+        <v>-0.0438247057897769</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0650619810362967</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.500575863805172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
+        <v>0.0820467558942954</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.122390069490297</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.502621302987553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
+        <v>0.0815640079934034</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.121721926902951</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.502803760358785</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n">
+        <v>0.0650243273604763</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0974568649437721</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.504637136152449</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
+        <v>0.0481821412685679</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0742009004710492</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.516114033321879</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n">
+        <v>0.0581335099593362</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0910285430576197</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.523064006938428</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n">
+        <v>0.0498943543227248</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0787634141115219</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.526425983349499</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
+        <v>0.0511655005933666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0832682559891273</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.538907525899099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
+        <v>-0.0140317673341305</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0235972626811347</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.552087223116982</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n">
+        <v>-0.0172687112414558</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0291072736524181</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.552994978260081</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n">
+        <v>0.0738436131495734</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.127475025794275</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.562400892252138</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n">
+        <v>-0.0280740010411343</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.048834643294329</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.565373269918837</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n">
+        <v>-0.0581564001330361</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.102593540676475</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.57080780773921</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n">
+        <v>0.0503061527658102</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.091620805613804</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.582958033682819</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n">
+        <v>-0.949312508607762</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.80438698941039</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.598809289984762</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n">
+        <v>59347873.4463006</v>
+      </c>
+      <c r="C33" t="n">
+        <v>118383740.208508</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.616147496326423</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
+        <v>0.0274664310368419</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0588315515510481</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.640595996680116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n">
+        <v>-0.0192311205299441</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0417446504059774</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.645024854515216</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n">
+        <v>-0.0177020931887944</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0401773543326582</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.659503488272384</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n">
+        <v>-0.0868533097784672</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.208742526924478</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.677352448763591</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
+        <v>-0.0152953398634753</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0373233296516951</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.681947961155067</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n">
+        <v>-0.0458796711251748</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.113680062198951</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.686517250031938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
+        <v>0.0381550449646669</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.096332535048265</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.692048657940717</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n">
+        <v>0.0351547611794375</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.090067191602855</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.696302111755398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n">
+        <v>-0.0155451523115999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0415656757545617</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.708411662360087</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n">
+        <v>-0.0176121844061939</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0476008858584329</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.711384734436479</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n">
+        <v>-0.0600314100376176</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.163704407857057</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.713838232799771</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n">
+        <v>0.0424087901319346</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.116891291308949</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.716750267753155</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n">
+        <v>-0.022614281552129</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0673141147825877</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.736907398617863</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n">
+        <v>-0.0150326203416765</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0471456372830267</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.749836498805067</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n">
+        <v>0.0312539494979792</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.107858544957896</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.771993768334112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n">
+        <v>0.0145632153053304</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0517339048665498</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.778325133144578</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n">
+        <v>-0.0294272970911399</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.104840634872756</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.778951257508356</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n">
+        <v>-0.0143595800664974</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.054411464830309</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.79185138874435</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
+        <v>-0.0190368218091171</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0797845305810587</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.811413502227822</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n">
+        <v>0.372168933007075</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.99587091908895</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.852076641727584</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n">
+        <v>-0.0063265383914861</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0356358873996841</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.859089914291421</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n">
+        <v>-0.0224115632781309</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.140107561879159</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.872912821727494</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n">
+        <v>0.0137871755067062</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.102681609133451</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.893188182813967</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n">
+        <v>-0.193066208453847</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.60777120611219</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.940982576213326</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n">
+        <v>-0.00766286164087543</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.111424828182235</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.945171439275485</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n">
+        <v>-0.00154196122321411</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.051788124387619</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.97624696180942</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n">
+        <v>-0.00170769148504785</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.11993381855537</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.988639612675439</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n">
+        <v>-0.000720934846166463</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0531686302443466</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.989181493778373</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n">
+        <v>52.3298811911778</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4843.29078055792</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.991379334051729</v>
       </c>
     </row>
@@ -1052,492 +1430,864 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
+        <v>-0.686305275035685</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.343479817532215</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.0457063714966695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
+        <v>-0.297591926603075</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.152048402473613</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.0503217998205564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
+        <v>-0.512964015691894</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.276141515610502</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.0632240186411054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
+        <v>-0.331183776053759</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.19166096531254</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0839941850723025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>-0.334532888055854</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.204521528425504</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.101905436388248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" t="n">
+        <v>-0.394093214315435</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.245726474803075</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.108760752218382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
+        <v>-0.697936281376491</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.436464416745186</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.109805494334177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="n">
+        <v>0.376174265563217</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.247798566677075</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.128998080054395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
+        <v>-0.647535086278909</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.426569910688739</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.129013239254328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
+        <v>-0.283753144143695</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.190213247284306</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.135761204452818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="n">
+        <v>-0.73094075924987</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.535265282609721</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.172074820440619</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="n">
+        <v>-0.982236418117647</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.803714987272097</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.221662129592027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
+        <v>0.463020901254138</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.383983945799028</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.227881498967328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
+        <v>-0.212453997201612</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.178332104285647</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.2335205152622</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" t="n">
+        <v>-0.414301316143113</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3492684047538</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.235544304720914</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
+        <v>0.432603530404857</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.368815666023356</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.240814557702115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="n">
+        <v>-0.570969007074535</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.495996362054186</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.249668213236698</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" t="n">
+        <v>-0.585761198262681</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.57237381008221</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.306123845015215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" t="n">
+        <v>0.333615574759812</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.362916012047795</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.357957575119375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21" t="n">
+        <v>-0.553777424331369</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.631050970716148</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.380189139202206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" t="n">
+        <v>0.148842224700348</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.169807493883466</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.380739216074495</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" t="n">
+        <v>-0.358409479732211</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.413112176182844</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.385622154357273</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" t="n">
+        <v>-0.151810709633634</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.189137483166241</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.422178561658075</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" t="n">
+        <v>-0.345107846530563</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.434407886535001</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.426943551964217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" t="n">
+        <v>-0.179622557961061</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.227620350463756</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.430034718021012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n">
+        <v>0.20048771023905</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.255436226481852</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.432521806385782</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" t="n">
+        <v>0.342625129723756</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.437768820489906</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.433825476175449</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="n">
+        <v>0.214389750269477</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.275641190842366</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.43669541581499</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
+        <v>-0.0868265776752222</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.120811109218831</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.472327653006794</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="n">
+        <v>-0.120687438884652</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.168624797141733</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.474166825965268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
+        <v>0.217857858406437</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.308969665425402</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.480741264975845</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="n">
+        <v>-0.374196734384636</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.536745750705571</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.48570375644541</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" t="n">
+        <v>-0.227503008965667</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.328806429385739</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.488996615247096</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" t="n">
+        <v>-0.553383161506626</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.805871228415911</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.492278531931679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
+        <v>0.147013222158516</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.219788095635738</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.503568079504528</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="n">
+        <v>-0.139569890013385</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.219469481006529</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.524814139214106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="n">
+        <v>-0.31582553373753</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.549385711261353</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.565379011396012</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="n">
+        <v>-0.206491038204444</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.368888104897114</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.575639021932017</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B40" t="n">
+        <v>0.104227425326578</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.192109297988792</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.587444957908136</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B41" t="n">
+        <v>0.1913275640227</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.385168659090238</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.619374454062033</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42" t="n">
+        <v>-0.27499095438195</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.593293687956019</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.643006824103929</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B43" t="n">
+        <v>0.0950984049608543</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.208693635794283</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.648617042281696</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" t="n">
+        <v>-0.180317815863453</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.410080545599884</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.660144864133487</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" t="n">
+        <v>-0.168393481658946</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.393024699893714</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.668319733848826</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B46" t="n">
+        <v>-0.132715918735398</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.355737934973762</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.709094740614336</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B47" t="n">
+        <v>-0.155199437977136</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.458046826664918</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.734738734674601</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B48" t="n">
+        <v>0.0878200224687569</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.319256863026066</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.783257557147201</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B49" t="n">
+        <v>0.0665553891680948</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.321619217593921</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.836057911152142</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B50" t="n">
+        <v>0.0625365012346234</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.302296639389168</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.836110364594924</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B51" t="n">
+        <v>0.0745294828892535</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.360424314594345</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.836179632620128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" t="n">
+        <v>-0.0635846364569945</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.309814298936967</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.837388780534649</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n">
+        <v>0.150429972175395</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.922758720070023</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.87050111279288</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n">
+        <v>-0.0666595477905622</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.456081794676832</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.883797448384878</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" t="n">
+        <v>-0.025350582482666</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.22844277085742</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.911639135878879</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B56" t="n">
+        <v>0.0103478517989617</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.15991308339502</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.948405517207687</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B57" t="n">
+        <v>-0.00980887811070495</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.264521178716736</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.970419914164136</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B58" t="n">
+        <v>0.00891514438492034</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.289861294159284</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.975463661829296</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B59" t="n">
+        <v>0.00649355068735727</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.525531759108165</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.990141467353063</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B60" t="n">
+        <v>0.0191688037674191</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.60208786986632</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.990453627452256</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B61" t="n">
+        <v>-8.56888777791667</v>
+      </c>
+      <c r="C61" t="n">
+        <v>790.977660020599</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.991356456853762</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n">
+        <v>104.013158398464</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9819.83632997562</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.991548846782139</v>
       </c>
     </row>
@@ -1562,492 +2312,864 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="n">
+        <v>-0.980749575218412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.461697050032494</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.0336511238666482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
+        <v>-0.4064371235097</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.202011765019971</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.0442254412772176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
+        <v>-0.640110385574584</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.319505352689013</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.0451298863918515</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
+        <v>1.13634496010877</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.587056101991501</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0529085328255799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
+        <v>-0.301632478782675</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.160279996203376</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0598482778641105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="n">
+        <v>0.7699301170607</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.438820431301757</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.0793371961115066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
+        <v>-0.254904965117971</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.159063319037136</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.109036758219257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
+        <v>-0.443979088427147</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.278423297892698</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.11079745509275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="n">
+        <v>-1.08298395033893</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6890347773569</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.116010716922014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="n">
+        <v>0.901906046612823</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.58974560296687</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.126186688014838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
+        <v>-0.336397932483193</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.220835329027057</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.12768426078642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
+        <v>0.376664892923415</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.247461280331089</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.127979897395156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
+        <v>-0.683501801389756</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.462983668672393</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.139863947165639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="n">
+        <v>0.961432075877715</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.653380458428057</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.14116309001958</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="n">
+        <v>-0.805315875189198</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.547386846955838</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.141236866331768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
+        <v>-1.05645538628288</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.725879972607384</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.145554868983846</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
+        <v>-0.293156010028398</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.201675553148338</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.146056650997516</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="n">
+        <v>0.721364390934168</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.502270718242749</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.150943634942621</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
+        <v>0.526715272822183</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.399701503666002</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.187580132090058</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="n">
+        <v>0.428455305881152</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.328130875050906</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.191639230870191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="n">
+        <v>0.424995847767106</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.332472515981204</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.201147663904696</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" t="n">
+        <v>-0.262598092557885</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.206713775770634</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.203961281285236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n">
+        <v>-0.653075504010675</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.527042572475839</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.215296486625276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25" t="n">
+        <v>-0.399341355616667</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.327227665598829</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.222321715752473</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" t="n">
+        <v>-0.830207914269806</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.772397411373101</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.282443886856731</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n">
+        <v>-0.462179132930637</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.431122747783814</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.283703834797769</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" t="n">
+        <v>-0.656536140130544</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.614060090137962</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.284991963651693</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" t="n">
+        <v>-0.760230135369595</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.721558061540697</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.292068271733707</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" t="n">
+        <v>0.490956851740419</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.501986012613095</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.328060007083722</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" t="n">
+        <v>-0.321865094687549</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.356975883643202</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.367246112336698</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B32" t="n">
+        <v>0.300546878017643</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.347762985965098</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.38746207209385</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B33" t="n">
+        <v>-0.326749357793908</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.380197727784175</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.390109090962287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B34" t="n">
+        <v>-0.495344088855769</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.660219698315029</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.453091144064016</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" t="n">
+        <v>-0.107338297133523</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.146720645781681</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.464423265105516</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B36" t="n">
+        <v>0.1822685921692</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.254580158185613</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.474017546901187</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="n">
+        <v>-0.433127825831795</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.608787864262207</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.476799624454377</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" t="n">
+        <v>-0.603894182243992</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.868053609783046</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.486624456819801</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
+        <v>-0.45072207451169</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.678796209855975</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.506688999368364</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B40" t="n">
+        <v>-0.142609764617275</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.215846784236426</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.508805335165926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" t="n">
+        <v>-0.0656695606503926</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0994848376935048</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.509192114320112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
+        <v>-0.299558806836315</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.461404553744056</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.516188142977072</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B43" t="n">
+        <v>-0.297026776273028</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.469323950842612</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.526810570070314</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n">
+        <v>-0.218712260630453</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.346554168888027</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.527971510095696</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" t="n">
+        <v>-0.36018371908745</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.583216490121894</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.536851237720599</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B46" t="n">
+        <v>-0.159588263392827</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.277627393365147</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.565406984584088</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B47" t="n">
+        <v>0.128484442331823</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.226537888823201</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.570601843053545</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" t="n">
+        <v>-0.157721987846487</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.28248555538006</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.57661464558919</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>0.0814750078100521</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.157354565972578</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.604611948566151</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>-0.287822581095787</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.755269429517719</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.703139459688554</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="n">
+        <v>-0.0530457478126562</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.157123995143995</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.735661346554692</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" t="n">
+        <v>-0.129299467302312</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.417414134477705</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.756741167011669</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
+        <v>-0.0500707533280512</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.184125845380778</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.785669946031</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n">
+        <v>0.0667514841651828</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.288805550972218</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.81721419359548</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B55" t="n">
+        <v>-0.0377901870932881</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.339322241207994</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.911323254492204</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B56" t="n">
+        <v>-0.0321363052327899</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.470373577936998</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.945530256502668</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B57" t="n">
+        <v>-0.0265588217506688</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.393963997334034</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.946251855740051</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B58" t="n">
+        <v>-0.0188089812011742</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.328456920115581</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.95433435355585</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B59" t="n">
+        <v>0.0664125924745673</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.30422144984222</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.977006443304548</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B60" t="n">
+        <v>-0.0125613261514307</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.06592394113381</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.990597587837538</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B61" t="n">
+        <v>-6.70650522818202</v>
+      </c>
+      <c r="C61" t="n">
+        <v>619.06468491447</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.991356456853762</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n">
+        <v>225.514341714692</v>
+      </c>
+      <c r="C62" t="n">
+        <v>21290.7093669291</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.991548846782511</v>
       </c>
     </row>
@@ -2072,492 +3194,864 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
+        <v>-0.679512129281965</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.322006526035155</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.0348374005950991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n">
+        <v>-0.770097685220457</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.407930387513909</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.0590505995640548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
+        <v>1.00907305289928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.545233564481634</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.0642102701768537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
+        <v>-0.313285214453924</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.175245228215803</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0738250481384169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n">
+        <v>0.780626247639858</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.447435097646116</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0810424622273066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
+        <v>-0.234630082562167</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.141620519255034</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.0975696193080747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="n">
+        <v>-1.06981472059731</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.669557907698923</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.11008912532014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
+        <v>-0.257173662330032</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.161844906447262</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.112057454976672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
+        <v>-0.429101871930247</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2708035704862</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.113068550460164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
+        <v>-0.350339214542434</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.227655206313466</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.123828048846789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="n">
+        <v>-1.24540576139543</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.827780586313217</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.132449605816023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
+        <v>0.886893181628033</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.591997832759947</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.134097956157508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="n">
+        <v>0.367460567535515</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.248091853365249</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.138567337944047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
+        <v>-0.614303249843802</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.422207063455289</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.145674525231538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" t="n">
+        <v>-0.909296798929699</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.629153012324987</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.148381692925889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" t="n">
+        <v>0.923274718159276</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.64568233586085</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.152739699948993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
+        <v>0.585466872557999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.427621370902758</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.170960377981608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
+        <v>0.417951562511764</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.309307077943689</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.176614976156674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" t="n">
+        <v>-0.617905629769386</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.459338960873282</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.178558646357008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="n">
+        <v>-0.241026530803793</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.179283316988939</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.178822608170284</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
+        <v>0.623812879757475</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.470023803999459</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.184444441209552</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" t="n">
+        <v>-1.23067964744365</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.932047145936606</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.186699858140662</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
+        <v>-0.249788944349461</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.200043980525009</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.211785748112298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
+        <v>0.397684533713954</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.323555550282795</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.21903152648913</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
+        <v>-0.778136666266646</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.682617630218475</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.254315251108709</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n">
+        <v>-0.527689150489121</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.466631180148985</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.25811888020331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28" t="n">
+        <v>-0.302504141629316</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.27233942276041</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.266671028871576</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" t="n">
+        <v>-0.712305656961376</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.71668769561057</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.320278513654672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" t="n">
+        <v>0.532254885451445</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.544560337619928</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.328369698574943</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B31" t="n">
+        <v>-0.200556836394084</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.213846775685564</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.348319968562624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B32" t="n">
+        <v>-0.29531415740348</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.36466337362595</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.418039751802918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" t="n">
+        <v>-0.378044640390957</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.468643559629513</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.419851787379866</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" t="n">
+        <v>-0.568592231465916</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.741077129880312</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.442932245538072</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B35" t="n">
+        <v>0.245655439741243</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.349068571757256</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.481591273722087</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B36" t="n">
+        <v>-0.533180093793702</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.757696806966159</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.481628785999139</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" t="n">
+        <v>-0.226041261924801</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.329246246653633</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.492371608429038</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
+        <v>-0.479162845445188</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.705733763114378</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.497165137614004</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" t="n">
+        <v>-0.0578457353039264</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0864538095571636</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.503435442969826</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
+        <v>-0.20971215131147</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.317203945217381</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.508530752882715</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" t="n">
+        <v>-0.442620768181734</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.671705245501487</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.509927306312354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="n">
+        <v>0.0925499078640985</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.152315701002525</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.543440222746736</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B43" t="n">
+        <v>0.151189174741262</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.249279476693577</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.544179660935177</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B44" t="n">
+        <v>-0.276156507362477</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.462429356783569</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.550382960483929</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" t="n">
+        <v>-0.547335270064609</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.943561931566238</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.561865054863951</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B46" t="n">
+        <v>-0.160227747243491</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.276287771129721</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.56196138426514</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" t="n">
+        <v>-0.0776256311871712</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.138402681045664</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.574887544504898</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" t="n">
+        <v>-0.145901984935095</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.260254728943169</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.575061909823494</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B49" t="n">
+        <v>0.111200514812734</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.219231671625305</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.611994618923903</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" t="n">
+        <v>-0.193334868226772</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.38836995532952</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.618617203231581</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" t="n">
+        <v>-0.378280753469038</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.794842004227301</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.634131779269724</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
+        <v>0.111332540676318</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.307358977748976</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.717185272623749</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
+        <v>-0.0724241431737113</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.204840628422304</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.723666128839512</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B54" t="n">
+        <v>-0.047643918326662</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.152517904490958</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.754749878150318</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" t="n">
+        <v>0.108760875609411</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.05683392219052</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.918032826409062</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B56" t="n">
+        <v>0.213618587147672</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.29334757788557</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.925786730508701</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B57" t="n">
+        <v>0.0233920267518108</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.270974238556181</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.931207550370106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B58" t="n">
+        <v>-0.0260091202808099</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.386533698356884</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.946352345850718</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B59" t="n">
+        <v>0.0230535853469145</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.38338191575013</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.952050370821473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B60" t="n">
+        <v>-6.57881236190342</v>
+      </c>
+      <c r="C60" t="n">
+        <v>607.277600383979</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.991356456853762</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n">
+        <v>230.614845508624</v>
+      </c>
+      <c r="C61" t="n">
+        <v>21772.2456755811</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.991548846782091</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B62" t="n">
+        <v>0.00404524256487531</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.542456326498051</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.994050015615026</v>
       </c>
     </row>
